--- a/Hardware/Pin Assignments.xlsx
+++ b/Hardware/Pin Assignments.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>DIO PINS</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>G0 Input (From CNC Machine)</t>
+  </si>
+  <si>
+    <t>PICK WIRECOLOR</t>
+  </si>
+  <si>
+    <t>GND for Temperature Sensor</t>
+  </si>
+  <si>
+    <t>Temperature Sensor Signal</t>
   </si>
 </sst>
 </file>
@@ -254,6 +263,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -307,57 +328,45 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D51" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D51" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:D51"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DIO PINS" dataDxfId="17"/>
-    <tableColumn id="2" name="Wire Color" dataDxfId="16"/>
-    <tableColumn id="3" name="Channel Number" dataDxfId="15"/>
-    <tableColumn id="4" name="Function" dataDxfId="14"/>
+    <tableColumn id="1" name="DIO PINS" dataDxfId="15"/>
+    <tableColumn id="2" name="Wire Color" dataDxfId="14"/>
+    <tableColumn id="3" name="Channel Number" dataDxfId="13"/>
+    <tableColumn id="4" name="Function" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="G1:J51" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="G1:J51" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="G1:J51"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ANALOG PINS" dataDxfId="11"/>
-    <tableColumn id="2" name="Wire Color" dataDxfId="10"/>
-    <tableColumn id="3" name="Channel Number" dataDxfId="9"/>
-    <tableColumn id="4" name="Function" dataDxfId="8"/>
+    <tableColumn id="1" name="ANALOG PINS" dataDxfId="9"/>
+    <tableColumn id="2" name="Wire Color" dataDxfId="8"/>
+    <tableColumn id="3" name="Channel Number" dataDxfId="7"/>
+    <tableColumn id="4" name="Function" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="M1:P27" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="M1:P27" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="M1:P27"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="COUNTER PINS" dataDxfId="5"/>
-    <tableColumn id="2" name="Wire Color" dataDxfId="4"/>
-    <tableColumn id="3" name="Counter Channel Number" dataDxfId="3"/>
-    <tableColumn id="4" name="Function" dataDxfId="2"/>
+    <tableColumn id="1" name="COUNTER PINS" dataDxfId="3"/>
+    <tableColumn id="2" name="Wire Color" dataDxfId="2"/>
+    <tableColumn id="3" name="Counter Channel Number" dataDxfId="1"/>
+    <tableColumn id="4" name="Function" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -650,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -785,6 +794,9 @@
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
@@ -817,6 +829,9 @@
       <c r="H5" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
@@ -849,6 +864,15 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="M6" s="1">
         <v>5</v>
       </c>
@@ -874,6 +898,15 @@
       </c>
       <c r="G7" s="1">
         <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="M7" s="1">
         <v>6</v>

--- a/Hardware/Pin Assignments.xlsx
+++ b/Hardware/Pin Assignments.xlsx
@@ -182,13 +182,13 @@
     <t>G0 Input (From CNC Machine)</t>
   </si>
   <si>
-    <t>PICK WIRECOLOR</t>
-  </si>
-  <si>
     <t>GND for Temperature Sensor</t>
   </si>
   <si>
     <t>Temperature Sensor Signal</t>
+  </si>
+  <si>
+    <t>Grey</t>
   </si>
 </sst>
 </file>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M6" s="1">
         <v>5</v>
@@ -900,13 +900,13 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="1">
         <v>6</v>
